--- a/TP2/Values.xlsx
+++ b/TP2/Values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon Ritchot\ECOLE\INF8775\INF8775_H2020\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB576CA5-010E-4595-B931-3EAAED192EB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D92292-611E-48CC-B026-C6EDD2BC5A03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEE97645-485D-49A7-AC3A-9E67325B7AEF}"/>
   </bookViews>
@@ -73,10 +73,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,31 +144,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CA"/>
-              <a:t>Glouton</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -199,6 +182,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tglouton exp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -239,8 +233,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.7928899430478367E-3"/>
-                  <c:y val="0.20384445615184177"/>
+                  <c:x val="-0.34563013998250219"/>
+                  <c:y val="7.3657407407407408E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -273,108 +267,80 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$12</c:f>
+              <c:f>Sheet1!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>1500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000000</c:v>
+                  <c:v>15000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000000</c:v>
+                  <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000000</c:v>
+                  <c:v>40000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$12</c:f>
+              <c:f>Sheet1!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8607425689697241E-6</c:v>
+                  <c:v>4.6518564224243102E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0246022542317667E-6</c:v>
+                  <c:v>1.53690338134765E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1001310348510739E-6</c:v>
+                  <c:v>5.50065517425537E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0513780911763466E-6</c:v>
+                  <c:v>0.157706713676452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9248571395874005E-7</c:v>
+                  <c:v>0.49624285697936998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0889678955078066E-6</c:v>
+                  <c:v>1.63345184326171</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.120908274650572E-6</c:v>
+                  <c:v>5.6045413732528599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1387290938695265E-6</c:v>
+                  <c:v>17.080936408042898</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1757832137743601E-6</c:v>
+                  <c:v>35.273496413230802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.3401597499847249E-7</c:v>
+                  <c:v>37.360638999938899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,7 +348,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4E26-4A2B-8309-928C188FD612}"/>
+              <c16:uniqueId val="{00000000-8E05-4765-854F-309A0ADC0C9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -394,11 +360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444388048"/>
-        <c:axId val="444387064"/>
+        <c:axId val="435900344"/>
+        <c:axId val="435900672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444388048"/>
+        <c:axId val="435900344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,12 +421,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444387064"/>
+        <c:crossAx val="435900672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444387064"/>
+        <c:axId val="435900672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +483,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444388048"/>
+        <c:crossAx val="435900344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -581,31 +547,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CA"/>
-              <a:t>Programmation Dynamique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -644,6 +585,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tprog exp.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -684,8 +636,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.2132447996239334E-2"/>
-                  <c:y val="0.23747940419119534"/>
+                  <c:x val="-0.30066444616500859"/>
+                  <c:y val="-1.9360902255639099E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -720,78 +672,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$16:$A$25</c:f>
+              <c:f>Sheet1!$D$16:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>75000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>750000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>2500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>7500000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>25000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000000</c:v>
+                  <c:v>75000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000000</c:v>
+                  <c:v>150000000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000000</c:v>
+                  <c:v>200000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$25</c:f>
+              <c:f>Sheet1!$E$16:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.7326908111572241E-6</c:v>
+                  <c:v>6.83172702789306E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8349529902140265E-6</c:v>
+                  <c:v>0.21262147426605199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.895053577423096E-6</c:v>
+                  <c:v>0.72376339435577397</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9795666058858132E-6</c:v>
+                  <c:v>2.23467495441436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.894102697372436E-6</c:v>
+                  <c:v>7.2352567434310897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1269794909159334E-6</c:v>
+                  <c:v>23.452346181869501</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1272394809722879E-6</c:v>
+                  <c:v>78.1809870243072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2051703437169333E-6</c:v>
+                  <c:v>240.38777577876999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0681222709019935E-6</c:v>
+                  <c:v>460.218340635299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.6643946399688702E-6</c:v>
+                  <c:v>532.87892799377403</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -799,7 +751,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5F81-410B-85C8-D85861925306}"/>
+              <c16:uniqueId val="{00000000-D01E-42FA-81DA-E9114428AA23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -811,11 +763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="444389360"/>
-        <c:axId val="444390016"/>
+        <c:axId val="435894768"/>
+        <c:axId val="435891488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="444389360"/>
+        <c:axId val="435894768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,12 +824,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444390016"/>
+        <c:crossAx val="435891488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="444390016"/>
+        <c:axId val="435891488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -934,7 +886,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="444389360"/>
+        <c:crossAx val="435894768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -998,31 +950,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Recherche locale</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1063,11 +990,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$28</c:f>
+              <c:f>Sheet1!$E$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tsearch</c:v>
+                  <c:v>Tsearch exp.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1112,8 +1039,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.12446744156980377"/>
-                  <c:y val="0.34211838006230527"/>
+                  <c:x val="-0.36722765809492369"/>
+                  <c:y val="-5.6390977443609026E-4"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1148,78 +1075,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$29:$A$38</c:f>
+              <c:f>Sheet1!$D$29:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3000</c:v>
+                  <c:v>52156.818820794942</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10000</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30000</c:v>
+                  <c:v>671568.1882079494</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100000</c:v>
+                  <c:v>2500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>300000</c:v>
+                  <c:v>8215681.8820794942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000000</c:v>
+                  <c:v>30000000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000000</c:v>
+                  <c:v>97156818.82079494</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6000000</c:v>
+                  <c:v>203344537.51150933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8000000</c:v>
+                  <c:v>276123599.47967774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$29:$B$38</c:f>
+              <c:f>Sheet1!$E$29:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.3789723714192702E-5</c:v>
+                  <c:v>9.8690900000000005E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.62212133985471E-5</c:v>
+                  <c:v>2.0804882E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6743636131286599E-4</c:v>
+                  <c:v>6.1886969999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3756670856479995E-4</c:v>
+                  <c:v>0.19642870000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2344805717468259E-3</c:v>
+                  <c:v>0.60385880000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6912593308058321E-3</c:v>
+                  <c:v>1.8397047</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1546513438224784E-2</c:v>
+                  <c:v>6.1851975000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2733351116433808E-2</c:v>
+                  <c:v>20.101154999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3224505942000825E-2</c:v>
+                  <c:v>47.567552399999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.7385379654607114E-2</c:v>
+                  <c:v>63.779219245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,7 +1154,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1FF2-4C40-99CC-4C80EBEE4FEB}"/>
+              <c16:uniqueId val="{00000000-CF78-4028-A022-382410C90AFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1239,11 +1166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="507473560"/>
-        <c:axId val="507475200"/>
+        <c:axId val="438149832"/>
+        <c:axId val="438149176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="507473560"/>
+        <c:axId val="438149832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,12 +1227,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507475200"/>
+        <c:crossAx val="438149176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="507475200"/>
+        <c:axId val="438149176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1362,7 +1289,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507473560"/>
+        <c:crossAx val="438149832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3083,23 +3010,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>434340</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27B9ED1D-B10A-42C1-8E64-8A2B6D063639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84E37B1F-BCC6-4397-B4B2-C34070B9CD79}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,22 +3047,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ABC3D96-B5E7-48A8-A489-8DAD9A279CC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C512CBE-269B-41DE-9504-628B13C9F743}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,23 +3082,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28007E4-8419-45A9-B235-5BE1040E6FCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11F7B4F2-B8D3-417C-8296-5D11810A05B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,8 +3120,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08906CA4-CC0C-4C9A-8910-4149FEFD862E}" name="Table1" displayName="Table1" ref="N2:Q12" totalsRowShown="0">
-  <autoFilter ref="N2:Q12" xr:uid="{4FA554B0-9EE0-4A2F-979C-EB9DB5247973}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08906CA4-CC0C-4C9A-8910-4149FEFD862E}" name="Table1" displayName="Table1" ref="R2:U12" totalsRowShown="0">
+  <autoFilter ref="R2:U12" xr:uid="{4FA554B0-9EE0-4A2F-979C-EB9DB5247973}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{68746E1A-38D4-4B4C-BB5E-390CED9748DD}" name="exSizes"/>
     <tableColumn id="2" xr3:uid="{CFAAD4A9-D457-407E-992C-6659E74BC6DE}" name="Tglouton exp."/>
@@ -3502,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CEF6B6-3444-40B2-8824-486EEC7F2FE7}">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3517,7 +3444,7 @@
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3525,487 +3452,487 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="P2" t="s">
+      <c r="T2" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3">
-        <f>C3/D3</f>
+        <f>E3/D3</f>
         <v>1.8607425689697241E-6</v>
-      </c>
-      <c r="C3">
-        <v>4.6518564224243102E-3</v>
       </c>
       <c r="D3">
         <f>A3/2*B$1</f>
         <v>2500</v>
       </c>
-      <c r="N3">
+      <c r="E3">
+        <v>4.6518564224243102E-3</v>
+      </c>
+      <c r="R3">
         <v>1000</v>
       </c>
-      <c r="O3">
+      <c r="S3">
         <v>4.6518564224243102E-3</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>6.83172702789306E-2</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>7.1369171142578102E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3000</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B12" si="0">C4/D4</f>
+        <f>E4/D4</f>
         <v>1.0246022542317667E-6</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f t="shared" ref="D4:F12" si="0">A4*B$1</f>
+        <v>15000</v>
+      </c>
+      <c r="E4">
         <v>1.53690338134765E-2</v>
       </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D12" si="1">A4*B$1</f>
-        <v>15000</v>
-      </c>
-      <c r="N4">
+      <c r="R4">
         <v>3000</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>1.53690338134765E-2</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>0.21262147426605199</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>1.95487976074218E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000</v>
       </c>
       <c r="B5">
+        <f>E5/D5</f>
+        <v>1.1001310348510739E-6</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>1.1001310348510739E-6</v>
-      </c>
-      <c r="C5">
+        <v>50000</v>
+      </c>
+      <c r="E5">
         <v>5.50065517425537E-2</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>50000</v>
-      </c>
-      <c r="N5">
+      <c r="R5">
         <v>10000</v>
       </c>
-      <c r="O5">
+      <c r="S5">
         <v>5.50065517425537E-2</v>
       </c>
-      <c r="P5">
+      <c r="T5">
         <v>0.72376339435577397</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>6.6974544525146396E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>30000</v>
       </c>
       <c r="B6">
+        <f>E6/D6</f>
+        <v>1.0513780911763466E-6</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>1.0513780911763466E-6</v>
-      </c>
-      <c r="C6">
+        <v>150000</v>
+      </c>
+      <c r="E6">
         <v>0.157706713676452</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>150000</v>
-      </c>
-      <c r="N6">
+      <c r="R6">
         <v>30000</v>
       </c>
-      <c r="O6">
+      <c r="S6">
         <v>0.157706713676452</v>
       </c>
-      <c r="P6">
+      <c r="T6">
         <v>2.23467495441436</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>0.195903921127319</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100000</v>
       </c>
       <c r="B7">
+        <f>E7/D7</f>
+        <v>9.9248571395874005E-7</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>9.9248571395874005E-7</v>
-      </c>
-      <c r="C7">
+        <v>500000</v>
+      </c>
+      <c r="E7">
         <v>0.49624285697936998</v>
       </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>500000</v>
-      </c>
-      <c r="N7">
+      <c r="R7">
         <v>100000</v>
       </c>
-      <c r="O7">
+      <c r="S7">
         <v>0.49624285697936998</v>
       </c>
-      <c r="P7">
+      <c r="T7">
         <v>7.2352567434310897</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>0.61724028587341295</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>300000</v>
       </c>
       <c r="B8">
+        <f>E8/D8</f>
+        <v>1.0889678955078066E-6</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>1.0889678955078066E-6</v>
-      </c>
-      <c r="C8">
+        <v>1500000</v>
+      </c>
+      <c r="E8">
         <v>1.63345184326171</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>1500000</v>
-      </c>
-      <c r="N8">
+      <c r="R8">
         <v>300000</v>
       </c>
-      <c r="O8">
+      <c r="S8">
         <v>1.63345184326171</v>
       </c>
-      <c r="P8">
+      <c r="T8">
         <v>23.452346181869501</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>2.0217474937438902</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1000000</v>
       </c>
       <c r="B9">
+        <f>E9/D9</f>
+        <v>1.120908274650572E-6</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>1.120908274650572E-6</v>
-      </c>
-      <c r="C9">
+        <v>5000000</v>
+      </c>
+      <c r="E9">
         <v>5.6045413732528599</v>
       </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>5000000</v>
-      </c>
-      <c r="N9">
+      <c r="R9">
         <v>1000000</v>
       </c>
-      <c r="O9">
+      <c r="S9">
         <v>5.6045413732528599</v>
       </c>
-      <c r="P9">
+      <c r="T9">
         <v>78.1809870243072</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>6.9279080629348702</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3000000</v>
       </c>
       <c r="B10">
+        <f>E10/D10</f>
+        <v>1.1387290938695265E-6</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>1.1387290938695265E-6</v>
-      </c>
-      <c r="C10">
+        <v>15000000</v>
+      </c>
+      <c r="E10">
         <v>17.080936408042898</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>15000000</v>
-      </c>
-      <c r="N10">
+      <c r="R10">
         <v>3000000</v>
       </c>
-      <c r="O10">
+      <c r="S10">
         <v>17.080936408042898</v>
       </c>
-      <c r="P10">
+      <c r="T10">
         <v>240.38777577876999</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>21.2017884254455</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6000000</v>
       </c>
       <c r="B11">
+        <f>E11/D11</f>
+        <v>1.1757832137743601E-6</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>1.1757832137743601E-6</v>
-      </c>
-      <c r="C11">
+        <v>30000000</v>
+      </c>
+      <c r="E11">
         <v>35.273496413230802</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>30000000</v>
-      </c>
-      <c r="N11">
+      <c r="R11">
         <v>6000000</v>
       </c>
-      <c r="O11">
+      <c r="S11">
         <v>35.273496413230802</v>
       </c>
-      <c r="P11">
+      <c r="T11">
         <v>460.218340635299</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>42.854526400566101</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8000000</v>
       </c>
       <c r="B12">
+        <f>E12/D12</f>
+        <v>9.3401597499847249E-7</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>9.3401597499847249E-7</v>
-      </c>
-      <c r="C12">
+        <v>40000000</v>
+      </c>
+      <c r="E12">
         <v>37.360638999938899</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>40000000</v>
-      </c>
-      <c r="N12">
+      <c r="R12">
         <v>8000000</v>
       </c>
-      <c r="O12">
+      <c r="S12">
         <v>37.360638999938899</v>
       </c>
-      <c r="P12">
+      <c r="T12">
         <v>532.87892799377403</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>46.5167339563369</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1000</v>
       </c>
       <c r="B16">
-        <f>C16/D16</f>
+        <f>E16/D16</f>
         <v>2.7326908111572241E-6</v>
-      </c>
-      <c r="C16">
-        <v>6.83172702789306E-2</v>
       </c>
       <c r="D16">
         <f>A16*(B$1^2)</f>
         <v>25000</v>
       </c>
+      <c r="E16">
+        <v>6.83172702789306E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3000</v>
       </c>
       <c r="B17">
-        <f t="shared" ref="B17:B25" si="2">C17/D17</f>
+        <f>E17/D17</f>
         <v>2.8349529902140265E-6</v>
       </c>
-      <c r="C17">
+      <c r="D17">
+        <f t="shared" ref="D17:D25" si="1">A17*(B$1^2)</f>
+        <v>75000</v>
+      </c>
+      <c r="E17">
         <v>0.21262147426605199</v>
       </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D25" si="3">A17*(B$1^2)</f>
-        <v>75000</v>
-      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10000</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f>E18/D18</f>
         <v>2.895053577423096E-6</v>
       </c>
-      <c r="C18">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+      <c r="E18">
         <v>0.72376339435577397</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>250000</v>
-      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30000</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f>E19/D19</f>
         <v>2.9795666058858132E-6</v>
       </c>
-      <c r="C19">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>750000</v>
+      </c>
+      <c r="E19">
         <v>2.23467495441436</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100000</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f>E20/D20</f>
         <v>2.894102697372436E-6</v>
       </c>
-      <c r="C20">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>2500000</v>
+      </c>
+      <c r="E20">
         <v>7.2352567434310897</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>2500000</v>
-      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>300000</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f>E21/D21</f>
         <v>3.1269794909159334E-6</v>
       </c>
-      <c r="C21">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>7500000</v>
+      </c>
+      <c r="E21">
         <v>23.452346181869501</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>7500000</v>
-      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1000000</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f>E22/D22</f>
         <v>3.1272394809722879E-6</v>
       </c>
-      <c r="C22">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>25000000</v>
+      </c>
+      <c r="E22">
         <v>78.1809870243072</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>25000000</v>
-      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3000000</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f>E23/D23</f>
         <v>3.2051703437169333E-6</v>
       </c>
-      <c r="C23">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>75000000</v>
+      </c>
+      <c r="E23">
         <v>240.38777577876999</v>
       </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>75000000</v>
-      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>6000000</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f>E24/D24</f>
         <v>3.0681222709019935E-6</v>
       </c>
-      <c r="C24">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>150000000</v>
+      </c>
+      <c r="E24">
         <v>460.218340635299</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>150000000</v>
-      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8000000</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f>E25/D25</f>
         <v>2.6643946399688702E-6</v>
       </c>
-      <c r="C25">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>200000000</v>
+      </c>
+      <c r="E25">
         <v>532.87892799377403</v>
       </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>200000000</v>
-      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4013,178 +3940,178 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1000</v>
       </c>
       <c r="B29">
-        <f>C29/D29</f>
-        <v>2.3789723714192702E-5</v>
-      </c>
-      <c r="C29">
-        <v>7.1369171142578102E-3</v>
+        <f>E29/D29</f>
+        <v>6.5793933333333334E-7</v>
       </c>
       <c r="D29">
-        <f>LOG(A29)*100</f>
-        <v>300</v>
+        <f>LOG(A29) * A29 *$B$1</f>
+        <v>15000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>9.8690900000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3000</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30:B38" si="4">C30/D30</f>
-        <v>5.62212133985471E-5</v>
-      </c>
-      <c r="C30">
-        <v>1.95487976074218E-2</v>
+        <f>E30/D30</f>
+        <v>3.9889093066590721E-7</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:D38" si="5">LOG(A30)*100</f>
-        <v>347.71212547196626</v>
+        <f t="shared" ref="D30:D38" si="2">LOG(A30) * A30 *$B$1</f>
+        <v>52156.818820794942</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2.0804882E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10000</v>
       </c>
       <c r="B31">
-        <f t="shared" si="4"/>
-        <v>1.6743636131286599E-4</v>
-      </c>
-      <c r="C31">
-        <v>6.6974544525146396E-2</v>
+        <f>E31/D31</f>
+        <v>3.0943485E-7</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
-        <v>400</v>
+        <f t="shared" si="2"/>
+        <v>200000</v>
+      </c>
+      <c r="E31">
+        <v>6.1886969999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30000</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
-        <v>4.3756670856479995E-4</v>
-      </c>
-      <c r="C32">
-        <v>0.195903921127319</v>
+        <f>E32/D32</f>
+        <v>2.9249256210923493E-7</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
-        <v>447.71212547196626</v>
+        <f t="shared" si="2"/>
+        <v>671568.1882079494</v>
+      </c>
+      <c r="E32">
+        <v>0.19642870000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>100000</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
-        <v>1.2344805717468259E-3</v>
-      </c>
-      <c r="C33">
-        <v>0.61724028587341295</v>
+        <f>E33/D33</f>
+        <v>2.4154351999999999E-7</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>2500000</v>
+      </c>
+      <c r="E33">
+        <v>0.60385880000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>300000</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
-        <v>3.6912593308058321E-3</v>
-      </c>
-      <c r="C34">
-        <v>2.0217474937438902</v>
+        <f>E34/D34</f>
+        <v>2.239259901254048E-7</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
-        <v>547.71212547196626</v>
+        <f t="shared" si="2"/>
+        <v>8215681.8820794942</v>
+      </c>
+      <c r="E34">
+        <v>1.8397047</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1000000</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
-        <v>1.1546513438224784E-2</v>
-      </c>
-      <c r="C35">
-        <v>6.9279080629348702</v>
+        <f>E35/D35</f>
+        <v>2.0617325000000001E-7</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
-        <v>600</v>
+        <f t="shared" si="2"/>
+        <v>30000000</v>
+      </c>
+      <c r="E35">
+        <v>6.1851975000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3000000</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
-        <v>3.2733351116433808E-2</v>
-      </c>
-      <c r="C36">
-        <v>21.2017884254455</v>
+        <f>E36/D36</f>
+        <v>2.0689391896493066E-7</v>
       </c>
       <c r="D36">
-        <f t="shared" si="5"/>
-        <v>647.71212547196626</v>
+        <f t="shared" si="2"/>
+        <v>97156818.82079494</v>
+      </c>
+      <c r="E36">
+        <v>20.101154999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>6000000</v>
       </c>
       <c r="B37">
-        <f t="shared" si="4"/>
-        <v>6.3224505942000825E-2</v>
-      </c>
-      <c r="C37">
-        <v>42.854526400566101</v>
+        <f>E37/D37</f>
+        <v>2.3392589238994269E-7</v>
       </c>
       <c r="D37">
-        <f t="shared" si="5"/>
-        <v>677.81512503836439</v>
+        <f t="shared" si="2"/>
+        <v>203344537.51150933</v>
+      </c>
+      <c r="E37">
+        <v>47.567552399999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8000000</v>
       </c>
       <c r="B38">
-        <f t="shared" si="4"/>
-        <v>6.7385379654607114E-2</v>
-      </c>
-      <c r="C38">
-        <v>46.5167339563369</v>
+        <f>E38/D38</f>
+        <v>2.3098068895662811E-7</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
-        <v>690.30899869919438</v>
+        <f t="shared" si="2"/>
+        <v>276123599.47967774</v>
+      </c>
+      <c r="E38">
+        <v>63.779219245</v>
       </c>
     </row>
   </sheetData>
